--- a/Progress List.xlsx
+++ b/Progress List.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jaret\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jaret\Desktop\GitHub\progress-sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D41F3A7-8165-452B-B1B0-03A0A8A97AE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:81_{4F1A11AB-4A72-42C7-84B2-C95D892486FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="113">
   <si>
     <t>Status</t>
   </si>
@@ -391,6 +391,9 @@
   </si>
   <si>
     <t>Elly med card</t>
+  </si>
+  <si>
+    <t>jarett</t>
   </si>
 </sst>
 </file>
@@ -909,8 +912,14 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{BECA104E-EFFC-4F44-AE17-821FE68815D9}">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{4D882327-102F-4A8F-BE52-81D09BE7167D}" diskRevisions="1" revisionId="3" version="2">
   <header guid="{BECA104E-EFFC-4F44-AE17-821FE68815D9}" dateTime="2022-11-02T18:12:57" maxSheetId="3" userName="001" r:id="rId1">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{4D882327-102F-4A8F-BE52-81D09BE7167D}" dateTime="2022-11-02T18:43:02" maxSheetId="3" userName="001" r:id="rId2" minRId="1" maxRId="2">
     <sheetIdMap count="2">
       <sheetId val="1"/>
       <sheetId val="2"/>
@@ -923,9 +932,35 @@
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac"/>
 </file>
 
+<file path=xl/revisions/revisionLog2.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1" sId="1">
+    <nc r="F32" t="inlineStr">
+      <is>
+        <t>jarett</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="2" sId="1">
+    <nc r="F33" t="inlineStr">
+      <is>
+        <t>You Jing</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{BED9D54F-5A60-41D6-82F9-8F659B637FD2}" action="delete"/>
+  <rdn rId="0" localSheetId="1" customView="1" name="Z_BED9D54F_5A60_41D6_82F9_8F659B637FD2_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Sheet1!$A$1:$AN$22</formula>
+    <oldFormula>Sheet1!$A$1:$AN$22</oldFormula>
+  </rdn>
+  <rcv guid="{BED9D54F-5A60-41D6-82F9-8F659B637FD2}" action="add"/>
+</revisions>
+</file>
+
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="2">
   <userInfo guid="{BECA104E-EFFC-4F44-AE17-821FE68815D9}" name="001" id="-815781068" dateTime="2022-11-02T18:16:24"/>
+  <userInfo guid="{4D882327-102F-4A8F-BE52-81D09BE7167D}" name="001" id="-815747572" dateTime="2022-11-02T18:42:48"/>
 </users>
 </file>
 
@@ -1134,9 +1169,9 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
       <pane xSplit="13" ySplit="1" topLeftCell="S2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L1" sqref="L1"/>
+      <selection pane="topRight" activeCell="N1" sqref="N1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H13" sqref="H13:H14"/>
+      <selection pane="bottomRight" activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2622,7 +2657,9 @@
       <c r="C32" s="28"/>
       <c r="D32" s="9"/>
       <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
+      <c r="F32" s="8" t="s">
+        <v>112</v>
+      </c>
       <c r="G32" s="10"/>
       <c r="H32" s="8"/>
       <c r="I32" s="8"/>
@@ -2660,7 +2697,9 @@
       <c r="C33" s="28"/>
       <c r="D33" s="9"/>
       <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
+      <c r="F33" s="8" t="s">
+        <v>101</v>
+      </c>
       <c r="G33" s="10"/>
       <c r="H33" s="8"/>
       <c r="I33" s="8"/>
@@ -3458,14 +3497,14 @@
       <c r="AJ53" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN22" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:AN31" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <customSheetViews>
     <customSheetView guid="{BED9D54F-5A60-41D6-82F9-8F659B637FD2}" scale="71" showAutoFilter="1">
       <pane xSplit="13" ySplit="1" topLeftCell="S2" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="J22" sqref="J22"/>
+      <selection pane="bottomRight" activeCell="F34" sqref="F34"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
-      <autoFilter ref="A1:AN22" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+      <autoFilter ref="A1:AN31" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
     </customSheetView>
   </customSheetViews>
   <hyperlinks>

--- a/Progress List.xlsx
+++ b/Progress List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jaret\Desktop\GitHub\progress-sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:81_{4F1A11AB-4A72-42C7-84B2-C95D892486FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:81_{719F5C78-DED6-4FA8-9803-DA24399E0167}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="112">
   <si>
     <t>Status</t>
   </si>
@@ -391,9 +391,6 @@
   </si>
   <si>
     <t>Elly med card</t>
-  </si>
-  <si>
-    <t>jarett</t>
   </si>
 </sst>
 </file>
@@ -912,7 +909,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{4D882327-102F-4A8F-BE52-81D09BE7167D}" diskRevisions="1" revisionId="3" version="2">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{D44ACBD0-7738-4703-99B9-233D2E16A8E1}" diskRevisions="1" revisionId="6" version="4">
   <header guid="{BECA104E-EFFC-4F44-AE17-821FE68815D9}" dateTime="2022-11-02T18:12:57" maxSheetId="3" userName="001" r:id="rId1">
     <sheetIdMap count="2">
       <sheetId val="1"/>
@@ -920,6 +917,18 @@
     </sheetIdMap>
   </header>
   <header guid="{4D882327-102F-4A8F-BE52-81D09BE7167D}" dateTime="2022-11-02T18:43:02" maxSheetId="3" userName="001" r:id="rId2" minRId="1" maxRId="2">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{FC02E88C-C697-405F-9387-79D40CF8C73C}" dateTime="2022-11-02T19:12:57" maxSheetId="3" userName="001" r:id="rId3" minRId="4" maxRId="5">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{D44ACBD0-7738-4703-99B9-233D2E16A8E1}" dateTime="2022-11-02T19:13:11" maxSheetId="3" userName="001" r:id="rId4">
     <sheetIdMap count="2">
       <sheetId val="1"/>
       <sheetId val="2"/>
@@ -957,10 +966,42 @@
 </revisions>
 </file>
 
-<file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/revisions/revisionLog3.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="4" sId="1">
+    <oc r="F33" t="inlineStr">
+      <is>
+        <t>You Jing</t>
+      </is>
+    </oc>
+    <nc r="F33"/>
+  </rcc>
+  <rcc rId="5" sId="1">
+    <oc r="F32" t="inlineStr">
+      <is>
+        <t>jarett</t>
+      </is>
+    </oc>
+    <nc r="F32"/>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog4.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcv guid="{BED9D54F-5A60-41D6-82F9-8F659B637FD2}" action="delete"/>
+  <rdn rId="0" localSheetId="1" customView="1" name="Z_BED9D54F_5A60_41D6_82F9_8F659B637FD2_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Sheet1!$A$1:$AN$22</formula>
+    <oldFormula>Sheet1!$A$1:$AN$22</oldFormula>
+  </rdn>
+  <rcv guid="{BED9D54F-5A60-41D6-82F9-8F659B637FD2}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/userNames1.xml><?xml version="1.0" encoding="utf-8"?>
 <users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="2">
   <userInfo guid="{BECA104E-EFFC-4F44-AE17-821FE68815D9}" name="001" id="-815781068" dateTime="2022-11-02T18:16:24"/>
-  <userInfo guid="{4D882327-102F-4A8F-BE52-81D09BE7167D}" name="001" id="-815747572" dateTime="2022-11-02T18:42:48"/>
+  <userInfo guid="{D44ACBD0-7738-4703-99B9-233D2E16A8E1}" name="001" id="-815747572" dateTime="2022-11-02T18:42:48"/>
 </users>
 </file>
 
@@ -1171,31 +1212,32 @@
       <pane xSplit="13" ySplit="1" topLeftCell="S2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="N1" sqref="N1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F34" sqref="F34"/>
+      <selection pane="bottomRight" activeCell="I37" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="37.7109375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" style="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31.85546875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="20.140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="27.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.7109375" style="4" customWidth="1"/>
-    <col min="12" max="12" width="47.140625" style="4" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="24.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="18.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="20.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14" style="4" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="47.85546875" style="4" customWidth="1"/>
+    <col min="10" max="10" width="17.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="47.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="26.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="22.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="46.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="22" max="16384" width="12.5703125" style="4"/>
   </cols>
   <sheetData>
@@ -1339,7 +1381,7 @@
       <c r="AI2" s="5"/>
       <c r="AJ2" s="5"/>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="39" t="s">
         <v>27</v>
       </c>
@@ -1397,7 +1439,7 @@
       <c r="AI3" s="8"/>
       <c r="AJ3" s="8"/>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="39" t="s">
         <v>27</v>
       </c>
@@ -1445,7 +1487,7 @@
       <c r="AI4" s="8"/>
       <c r="AJ4" s="8"/>
     </row>
-    <row r="5" spans="1:36" s="58" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:36" s="58" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
         <v>106</v>
       </c>
@@ -1487,7 +1529,7 @@
       <c r="AI5" s="19"/>
       <c r="AJ5" s="19"/>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
         <v>26</v>
       </c>
@@ -1547,7 +1589,7 @@
       <c r="AI6" s="8"/>
       <c r="AJ6" s="8"/>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="33" t="s">
         <v>97</v>
       </c>
@@ -1605,7 +1647,7 @@
       <c r="AI7" s="8"/>
       <c r="AJ7" s="8"/>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
         <v>105</v>
       </c>
@@ -1649,7 +1691,7 @@
       <c r="AI8" s="8"/>
       <c r="AJ8" s="8"/>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
         <v>63</v>
       </c>
@@ -1705,7 +1747,7 @@
       <c r="AI9" s="8"/>
       <c r="AJ9" s="8"/>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
         <v>70</v>
       </c>
@@ -2657,9 +2699,7 @@
       <c r="C32" s="28"/>
       <c r="D32" s="9"/>
       <c r="E32" s="8"/>
-      <c r="F32" s="8" t="s">
-        <v>112</v>
-      </c>
+      <c r="F32" s="8"/>
       <c r="G32" s="10"/>
       <c r="H32" s="8"/>
       <c r="I32" s="8"/>
@@ -2697,9 +2737,7 @@
       <c r="C33" s="28"/>
       <c r="D33" s="9"/>
       <c r="E33" s="8"/>
-      <c r="F33" s="8" t="s">
-        <v>101</v>
-      </c>
+      <c r="F33" s="8"/>
       <c r="G33" s="10"/>
       <c r="H33" s="8"/>
       <c r="I33" s="8"/>
@@ -3501,7 +3539,7 @@
   <customSheetViews>
     <customSheetView guid="{BED9D54F-5A60-41D6-82F9-8F659B637FD2}" scale="71" showAutoFilter="1">
       <pane xSplit="13" ySplit="1" topLeftCell="S2" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="F34" sqref="F34"/>
+      <selection pane="bottomRight" activeCell="I37" sqref="A1:XFD1048576"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
       <autoFilter ref="A1:AN31" xr:uid="{00000000-0009-0000-0000-000000000000}"/>

--- a/Progress List.xlsx
+++ b/Progress List.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jaret\Desktop\GitHub\progress-sheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\GitHub\progress-sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:81_{719F5C78-DED6-4FA8-9803-DA24399E0167}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:81_{77CCF45C-7074-479F-896A-0AD25576AA43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,10 +18,12 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AN$22</definedName>
+    <definedName name="Z_48485F89_2A03_4684_8B07_51F2C5D4E06E_.wvu.FilterData" localSheetId="0" hidden="1">Sheet1!$A$1:$AN$22</definedName>
     <definedName name="Z_BED9D54F_5A60_41D6_82F9_8F659B637FD2_.wvu.FilterData" localSheetId="0" hidden="1">Sheet1!$A$1:$AN$22</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="LL SkyBlue - Personal View" guid="{48485F89-2A03-4684-8B07-51F2C5D4E06E}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
     <customWorkbookView name="001 - Personal View" guid="{BED9D54F-5A60-41D6-82F9-8F659B637FD2}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
@@ -41,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="113">
   <si>
     <t>Status</t>
   </si>
@@ -391,6 +393,9 @@
   </si>
   <si>
     <t>Elly med card</t>
+  </si>
+  <si>
+    <t>sugoma</t>
   </si>
 </sst>
 </file>
@@ -909,7 +914,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{D44ACBD0-7738-4703-99B9-233D2E16A8E1}" diskRevisions="1" revisionId="6" version="4">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{6F6D2C19-87CD-4781-87A5-551E4FCDDD44}" diskRevisions="1" revisionId="8" version="5">
   <header guid="{BECA104E-EFFC-4F44-AE17-821FE68815D9}" dateTime="2022-11-02T18:12:57" maxSheetId="3" userName="001" r:id="rId1">
     <sheetIdMap count="2">
       <sheetId val="1"/>
@@ -929,6 +934,12 @@
     </sheetIdMap>
   </header>
   <header guid="{D44ACBD0-7738-4703-99B9-233D2E16A8E1}" dateTime="2022-11-02T19:13:11" maxSheetId="3" userName="001" r:id="rId4">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{6F6D2C19-87CD-4781-87A5-551E4FCDDD44}" dateTime="2022-11-02T19:19:07" maxSheetId="3" userName="LL SkyBlue" r:id="rId5" minRId="7">
     <sheetIdMap count="2">
       <sheetId val="1"/>
       <sheetId val="2"/>
@@ -998,10 +1009,27 @@
 </revisions>
 </file>
 
-<file path=xl/revisions/userNames1.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="2">
+<file path=xl/revisions/revisionLog5.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="7" sId="1">
+    <nc r="F32" t="inlineStr">
+      <is>
+        <t>sugoma</t>
+      </is>
+    </nc>
+  </rcc>
+  <rdn rId="0" localSheetId="1" customView="1" name="Z_48485F89_2A03_4684_8B07_51F2C5D4E06E_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Sheet1!$A$1:$AN$22</formula>
+  </rdn>
+  <rcv guid="{48485F89-2A03-4684-8B07-51F2C5D4E06E}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="3">
   <userInfo guid="{BECA104E-EFFC-4F44-AE17-821FE68815D9}" name="001" id="-815781068" dateTime="2022-11-02T18:16:24"/>
   <userInfo guid="{D44ACBD0-7738-4703-99B9-233D2E16A8E1}" name="001" id="-815747572" dateTime="2022-11-02T18:42:48"/>
+  <userInfo guid="{6F6D2C19-87CD-4781-87A5-551E4FCDDD44}" name="LL SkyBlue" id="-335826833" dateTime="2022-11-02T19:18:46"/>
 </users>
 </file>
 
@@ -1212,7 +1240,7 @@
       <pane xSplit="13" ySplit="1" topLeftCell="S2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="N1" sqref="N1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I37" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="I44" sqref="I44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1381,7 +1409,7 @@
       <c r="AI2" s="5"/>
       <c r="AJ2" s="5"/>
     </row>
-    <row r="3" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A3" s="39" t="s">
         <v>27</v>
       </c>
@@ -1439,7 +1467,7 @@
       <c r="AI3" s="8"/>
       <c r="AJ3" s="8"/>
     </row>
-    <row r="4" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A4" s="39" t="s">
         <v>27</v>
       </c>
@@ -1487,7 +1515,7 @@
       <c r="AI4" s="8"/>
       <c r="AJ4" s="8"/>
     </row>
-    <row r="5" spans="1:36" s="58" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" s="58" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="19" t="s">
         <v>106</v>
       </c>
@@ -1529,7 +1557,7 @@
       <c r="AI5" s="19"/>
       <c r="AJ5" s="19"/>
     </row>
-    <row r="6" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A6" s="19" t="s">
         <v>26</v>
       </c>
@@ -1589,7 +1617,7 @@
       <c r="AI6" s="8"/>
       <c r="AJ6" s="8"/>
     </row>
-    <row r="7" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A7" s="33" t="s">
         <v>97</v>
       </c>
@@ -1647,7 +1675,7 @@
       <c r="AI7" s="8"/>
       <c r="AJ7" s="8"/>
     </row>
-    <row r="8" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A8" s="20" t="s">
         <v>105</v>
       </c>
@@ -1691,7 +1719,7 @@
       <c r="AI8" s="8"/>
       <c r="AJ8" s="8"/>
     </row>
-    <row r="9" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A9" s="19" t="s">
         <v>63</v>
       </c>
@@ -1747,7 +1775,7 @@
       <c r="AI9" s="8"/>
       <c r="AJ9" s="8"/>
     </row>
-    <row r="10" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A10" s="20" t="s">
         <v>70</v>
       </c>
@@ -2699,7 +2727,9 @@
       <c r="C32" s="28"/>
       <c r="D32" s="9"/>
       <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
+      <c r="F32" s="8" t="s">
+        <v>112</v>
+      </c>
       <c r="G32" s="10"/>
       <c r="H32" s="8"/>
       <c r="I32" s="8"/>
@@ -3537,19 +3567,26 @@
   </sheetData>
   <autoFilter ref="A1:AN31" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <customSheetViews>
+    <customSheetView guid="{48485F89-2A03-4684-8B07-51F2C5D4E06E}" scale="71" showAutoFilter="1">
+      <pane xSplit="13" ySplit="1" topLeftCell="S2" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="I44" sqref="I44"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+      <autoFilter ref="A1:AN31" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+    </customSheetView>
     <customSheetView guid="{BED9D54F-5A60-41D6-82F9-8F659B637FD2}" scale="71" showAutoFilter="1">
       <pane xSplit="13" ySplit="1" topLeftCell="S2" activePane="bottomRight" state="frozen"/>
       <selection pane="bottomRight" activeCell="I37" sqref="A1:XFD1048576"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
-      <autoFilter ref="A1:AN31" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+      <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId2"/>
+      <autoFilter ref="A1:AN31" xr:uid="{92EE7704-C152-4711-ADFF-D35E500AA4AD}"/>
     </customSheetView>
   </customSheetViews>
   <hyperlinks>
-    <hyperlink ref="I2" r:id="rId2" xr:uid="{B5BBF43D-EA17-439E-9F60-579E291A49BD}"/>
+    <hyperlink ref="I2" r:id="rId3" xr:uid="{B5BBF43D-EA17-439E-9F60-579E291A49BD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -3633,6 +3670,10 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{48485F89-2A03-4684-8B07-51F2C5D4E06E}">
+      <selection activeCell="M15" sqref="M15"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{BED9D54F-5A60-41D6-82F9-8F659B637FD2}">
       <selection activeCell="M15" sqref="M15"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Progress List.xlsx
+++ b/Progress List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\GitHub\progress-sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:81_{77CCF45C-7074-479F-896A-0AD25576AA43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:81_{BC5366F2-11C8-4736-A192-09D0815066AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -914,7 +914,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{6F6D2C19-87CD-4781-87A5-551E4FCDDD44}" diskRevisions="1" revisionId="8" version="5">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{96EA7EAD-56DB-4F1F-B8F2-AF5E4A92D841}" diskRevisions="1" revisionId="9" version="6">
   <header guid="{BECA104E-EFFC-4F44-AE17-821FE68815D9}" dateTime="2022-11-02T18:12:57" maxSheetId="3" userName="001" r:id="rId1">
     <sheetIdMap count="2">
       <sheetId val="1"/>
@@ -940,6 +940,12 @@
     </sheetIdMap>
   </header>
   <header guid="{6F6D2C19-87CD-4781-87A5-551E4FCDDD44}" dateTime="2022-11-02T19:19:07" maxSheetId="3" userName="LL SkyBlue" r:id="rId5" minRId="7">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{96EA7EAD-56DB-4F1F-B8F2-AF5E4A92D841}" dateTime="2022-11-02T19:20:01" maxSheetId="3" userName="LL SkyBlue" r:id="rId6" minRId="9">
     <sheetIdMap count="2">
       <sheetId val="1"/>
       <sheetId val="2"/>
@@ -1025,11 +1031,21 @@
 </revisions>
 </file>
 
+<file path=xl/revisions/revisionLog6.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="9" sId="1">
+    <nc r="F33">
+      <v>1</v>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
 <users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="3">
   <userInfo guid="{BECA104E-EFFC-4F44-AE17-821FE68815D9}" name="001" id="-815781068" dateTime="2022-11-02T18:16:24"/>
   <userInfo guid="{D44ACBD0-7738-4703-99B9-233D2E16A8E1}" name="001" id="-815747572" dateTime="2022-11-02T18:42:48"/>
-  <userInfo guid="{6F6D2C19-87CD-4781-87A5-551E4FCDDD44}" name="LL SkyBlue" id="-335826833" dateTime="2022-11-02T19:18:46"/>
+  <userInfo guid="{96EA7EAD-56DB-4F1F-B8F2-AF5E4A92D841}" name="LL SkyBlue" id="-335826833" dateTime="2022-11-02T19:18:46"/>
 </users>
 </file>
 
@@ -1240,7 +1256,7 @@
       <pane xSplit="13" ySplit="1" topLeftCell="S2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="N1" sqref="N1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I44" sqref="I44"/>
+      <selection pane="bottomRight" activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2767,7 +2783,9 @@
       <c r="C33" s="28"/>
       <c r="D33" s="9"/>
       <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
+      <c r="F33" s="8">
+        <v>1</v>
+      </c>
       <c r="G33" s="10"/>
       <c r="H33" s="8"/>
       <c r="I33" s="8"/>

--- a/Progress List.xlsx
+++ b/Progress List.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\GitHub\progress-sheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jaret\Desktop\GitHub\progress-sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:81_{77CCF45C-7074-479F-896A-0AD25576AA43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:81_{1A185B92-0B06-4A06-AC29-7E0F9C78A661}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,8 +23,8 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="001 - Personal View" guid="{BED9D54F-5A60-41D6-82F9-8F659B637FD2}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
     <customWorkbookView name="LL SkyBlue - Personal View" guid="{48485F89-2A03-4684-8B07-51F2C5D4E06E}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
-    <customWorkbookView name="001 - Personal View" guid="{BED9D54F-5A60-41D6-82F9-8F659B637FD2}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -914,7 +914,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{6F6D2C19-87CD-4781-87A5-551E4FCDDD44}" diskRevisions="1" revisionId="8" version="5">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{BB1458DE-57F2-42BB-9D10-4E6E87B6304B}" diskRevisions="1" revisionId="9" version="6">
   <header guid="{BECA104E-EFFC-4F44-AE17-821FE68815D9}" dateTime="2022-11-02T18:12:57" maxSheetId="3" userName="001" r:id="rId1">
     <sheetIdMap count="2">
       <sheetId val="1"/>
@@ -940,6 +940,12 @@
     </sheetIdMap>
   </header>
   <header guid="{6F6D2C19-87CD-4781-87A5-551E4FCDDD44}" dateTime="2022-11-02T19:19:07" maxSheetId="3" userName="LL SkyBlue" r:id="rId5" minRId="7">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{BB1458DE-57F2-42BB-9D10-4E6E87B6304B}" dateTime="2022-11-02T19:20:09" maxSheetId="3" userName="001" r:id="rId6" minRId="9">
     <sheetIdMap count="2">
       <sheetId val="1"/>
       <sheetId val="2"/>
@@ -1025,11 +1031,21 @@
 </revisions>
 </file>
 
+<file path=xl/revisions/revisionLog6.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="9" sId="1">
+    <nc r="F33">
+      <v>2</v>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
 <users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="3">
   <userInfo guid="{BECA104E-EFFC-4F44-AE17-821FE68815D9}" name="001" id="-815781068" dateTime="2022-11-02T18:16:24"/>
-  <userInfo guid="{D44ACBD0-7738-4703-99B9-233D2E16A8E1}" name="001" id="-815747572" dateTime="2022-11-02T18:42:48"/>
   <userInfo guid="{6F6D2C19-87CD-4781-87A5-551E4FCDDD44}" name="LL SkyBlue" id="-335826833" dateTime="2022-11-02T19:18:46"/>
+  <userInfo guid="{BB1458DE-57F2-42BB-9D10-4E6E87B6304B}" name="001" id="-815738963" dateTime="2022-11-02T19:20:03"/>
 </users>
 </file>
 
@@ -1240,7 +1256,7 @@
       <pane xSplit="13" ySplit="1" topLeftCell="S2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="N1" sqref="N1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I44" sqref="I44"/>
+      <selection pane="bottomRight" activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2767,7 +2783,9 @@
       <c r="C33" s="28"/>
       <c r="D33" s="9"/>
       <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
+      <c r="F33" s="8">
+        <v>2</v>
+      </c>
       <c r="G33" s="10"/>
       <c r="H33" s="8"/>
       <c r="I33" s="8"/>
@@ -3565,21 +3583,21 @@
       <c r="AJ53" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN31" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:AN32" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <customSheetViews>
+    <customSheetView guid="{BED9D54F-5A60-41D6-82F9-8F659B637FD2}" scale="71" showAutoFilter="1">
+      <pane xSplit="13" ySplit="1" topLeftCell="S2" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="I37" sqref="A1:XFD1048576"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+      <autoFilter ref="A1:AN31" xr:uid="{D30041DB-16AC-49D3-8759-77A1B415F475}"/>
+    </customSheetView>
     <customSheetView guid="{48485F89-2A03-4684-8B07-51F2C5D4E06E}" scale="71" showAutoFilter="1">
       <pane xSplit="13" ySplit="1" topLeftCell="S2" activePane="bottomRight" state="frozen"/>
       <selection pane="bottomRight" activeCell="I44" sqref="I44"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
-      <autoFilter ref="A1:AN31" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-    </customSheetView>
-    <customSheetView guid="{BED9D54F-5A60-41D6-82F9-8F659B637FD2}" scale="71" showAutoFilter="1">
-      <pane xSplit="13" ySplit="1" topLeftCell="S2" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="I37" sqref="A1:XFD1048576"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId2"/>
-      <autoFilter ref="A1:AN31" xr:uid="{92EE7704-C152-4711-ADFF-D35E500AA4AD}"/>
+      <autoFilter ref="A1:AN31" xr:uid="{3D9E3D68-8829-45B6-AF70-1405962A98E1}"/>
     </customSheetView>
   </customSheetViews>
   <hyperlinks>
@@ -3670,11 +3688,11 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{48485F89-2A03-4684-8B07-51F2C5D4E06E}">
+    <customSheetView guid="{BED9D54F-5A60-41D6-82F9-8F659B637FD2}">
       <selection activeCell="M15" sqref="M15"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{BED9D54F-5A60-41D6-82F9-8F659B637FD2}">
+    <customSheetView guid="{48485F89-2A03-4684-8B07-51F2C5D4E06E}">
       <selection activeCell="M15" sqref="M15"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
